--- a/datasets/usa_cities/largest_cities.xlsx
+++ b/datasets/usa_cities/largest_cities.xlsx
@@ -22,19 +22,19 @@
     <t>State</t>
   </si>
   <si>
-    <t>2023_Population</t>
-  </si>
-  <si>
-    <t>2020_Census</t>
-  </si>
-  <si>
-    <t>Annual_Change</t>
-  </si>
-  <si>
-    <t>Area_mi2</t>
-  </si>
-  <si>
-    <t>Density_mi2</t>
+    <t>2023 Population</t>
+  </si>
+  <si>
+    <t>2020 Census</t>
+  </si>
+  <si>
+    <t>Annual Change</t>
+  </si>
+  <si>
+    <t>Area mi2</t>
+  </si>
+  <si>
+    <t>Density mi2</t>
   </si>
   <si>
     <t>New York City</t>
@@ -3566,13 +3566,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3628,7 +3628,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/datasets/usa_cities/largest_cities.xlsx
+++ b/datasets/usa_cities/largest_cities.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1178">
   <si>
-    <t>Name</t>
+    <t>City</t>
   </si>
   <si>
     <t>State</t>
